--- a/economic_analysis_report.xlsx
+++ b/economic_analysis_report.xlsx
@@ -767,12 +767,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88314.51617961345</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>97997.43878619552</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.602685514644992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.39731448535501</v>
+      </c>
       <c r="E3" t="n">
-        <v>28.4159180576369</v>
+        <v>20.56734281433917</v>
       </c>
     </row>
     <row r="4">
@@ -782,12 +786,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38551.22422384583</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>28808.62252924758</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.127932001097889</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.87206799890211</v>
+      </c>
       <c r="E4" t="n">
-        <v>68.75197744156092</v>
+        <v>76.64892607704378</v>
       </c>
     </row>
   </sheetData>
